--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laicoz\Documents\School\Periode 3.4\Artificial Intelligence\Sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21370DF-814B-4E20-B957-1CC5A649A29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFC3AC-1CFF-4D10-BB5B-95FD01137C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22980" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{CB80FD01-812E-46F0-B64B-129F87E3FDC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB80FD01-812E-46F0-B64B-129F87E3FDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +77,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +95,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,18 +145,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
+    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7B5A6-71DE-46D8-9197-A96F0C941567}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,31 +780,31 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>0</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>6</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>7</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>8</v>
       </c>
       <c r="J12" s="3">
@@ -779,31 +815,31 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>13</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>14</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="6">
         <v>15</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>16</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <v>17</v>
       </c>
       <c r="J13" s="3">
@@ -811,31 +847,31 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>18</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="7">
         <v>19</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>20</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>21</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>22</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="5">
         <v>23</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="6">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>25</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="6">
         <v>26</v>
       </c>
       <c r="J14" s="3">
@@ -843,31 +879,31 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>27</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>28</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>29</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>30</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>31</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>32</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <v>33</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>34</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <v>35</v>
       </c>
       <c r="J15" s="3">
@@ -875,31 +911,31 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>36</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="6">
         <v>37</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>38</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>39</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>40</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>41</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <v>42</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5">
         <v>43</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="5">
         <v>44</v>
       </c>
       <c r="J16" s="3">
@@ -907,31 +943,31 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>45</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>46</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>47</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>48</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>49</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>50</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <v>51</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="5">
         <v>52</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="5">
         <v>53</v>
       </c>
       <c r="J17" s="3">
@@ -939,31 +975,31 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>54</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="7">
         <v>55</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>56</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>57</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>58</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="5">
         <v>59</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="6">
         <v>60</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>61</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <v>62</v>
       </c>
       <c r="J18" s="3">
@@ -971,31 +1007,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>63</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="7">
         <v>64</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>65</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>66</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <v>67</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="5">
         <v>68</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="6">
         <v>69</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>70</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="6">
         <v>71</v>
       </c>
       <c r="J19" s="3">
@@ -1003,31 +1039,31 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>72</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="7">
         <v>73</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>74</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>75</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>76</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>77</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="6">
         <v>78</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="6">
         <v>79</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="6">
         <v>80</v>
       </c>
       <c r="J20" s="3">
@@ -1035,31 +1071,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>0</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>6</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <v>7</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>8</v>
       </c>
     </row>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laicoz\Documents\School\Periode 3.4\Artificial Intelligence\Sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CFC3AC-1CFF-4D10-BB5B-95FD01137C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FF770-9458-435D-B4F9-629D836C0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB80FD01-812E-46F0-B64B-129F87E3FDC5}"/>
+    <workbookView xWindow="7200" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{CB80FD01-812E-46F0-B64B-129F87E3FDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>x%9 = 1</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>x / 9</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>0; 24</t>
+  </si>
+  <si>
+    <t>00;02</t>
   </si>
 </sst>
 </file>
@@ -150,7 +162,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -159,6 +171,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
@@ -475,13 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B7B5A6-71DE-46D8-9197-A96F0C941567}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
@@ -1102,6 +1118,47 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.93055555555555547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.30694444444444441</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laicoz\Documents\School\Periode 3.4\Artificial Intelligence\Sudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\School\Ai\Sudoku\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FF770-9458-435D-B4F9-629D836C0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C3B29B-D022-4066-B8BA-CAB59574D051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{CB80FD01-812E-46F0-B64B-129F87E3FDC5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{CB80FD01-812E-46F0-B64B-129F87E3FDC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>x%9 = 1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>00;02</t>
+  </si>
+  <si>
+    <t>02;25</t>
   </si>
 </sst>
 </file>
@@ -174,9 +177,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Controlecel" xfId="1" builtinId="23"/>
-    <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +195,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,15 +494,15 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -531,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -563,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -592,7 +595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>28</v>
       </c>
@@ -621,7 +624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>37</v>
       </c>
@@ -650,7 +653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>46</v>
       </c>
@@ -679,7 +682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -708,7 +711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>64</v>
       </c>
@@ -737,7 +740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>73</v>
       </c>
@@ -766,7 +769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -795,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>0</v>
       </c>
@@ -830,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -862,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>18</v>
       </c>
@@ -894,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>27</v>
       </c>
@@ -926,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>36</v>
       </c>
@@ -958,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>45</v>
       </c>
@@ -990,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>54</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>63</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>72</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>0</v>
       </c>
@@ -1115,12 +1118,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1139,18 +1142,18 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="8">
-        <v>0.10069444444444443</v>
+      <c r="B26" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="8">
         <v>0.93055555555555547</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
